--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" firstSheet="23" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="26" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="335">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -771,18 +771,9 @@
     <t>bravčové stehno 70%, pitná voda, jedná soľ, konzervant (E250), stabilizátory (E451, E450), zahusťovadlá (E407a, E415), cukor, antioxidanty (E316, E301).</t>
   </si>
   <si>
-    <t>pšeničná múka,pitná voda, repkový olej, droždie, regulátor kyslosti: E263, múku upravujúca látka: E300, E920, jedlá soľ s jódom, cukor.</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>repkový olej, vaječné žĺtky, kvasný ocot liehový, pitná voda, jedlá soľ.</t>
-  </si>
-  <si>
-    <t>pasterizované odstredené mlieko, rastlinný tuk (palmový úplne hydrogenovaný 26%), jedlá soľ, stabilizátor (chlorid vápenatý), mliekarenské kultúry, syridlo, farbivo (karotény).</t>
-  </si>
-  <si>
     <t>červená paprika, pitná voda, ocot kvasný liehový, cukor, jedlá soľ, konzervačná látka (benzoan sodny).</t>
   </si>
   <si>
@@ -840,24 +831,12 @@
     <t>zelená paprika 7,17 %</t>
   </si>
   <si>
-    <t>pšeničná múka, pitná voda, pekárska zmes (ľan, ovsené vločky, zemiaková kaša, sušená srvátka, ovsená múka, sušený cmar, slnečnica, pšeničná múka celozrnná, cukor, jačmenná sladová múka, emulgátory (E471, E472e), repkový olej, múku upravujúca látka: E300, sezam, regulátory kyslosti (E330, E270, E334), repkový olej), droždie, ľan, pšeničné otruby, jedlá soľ s jódom, repkový olej, pšeničný lepok, múku upravujúca látka: E920, ražná múka.</t>
-  </si>
-  <si>
     <t>pšenica, ovos, srvátka, cmar, jačmeň, sezam, lepok</t>
   </si>
   <si>
-    <t>repkový olej, vaječné žĺtky, kvasný ocot liehový, pitná voda, jedlá soľ</t>
-  </si>
-  <si>
     <t>bravčové mäso min 67%, pitná voda, zemiakový škrob, stabilizátory (E450, E541), zahusťovadlá (E407, E415, E412), antioxidant (E300), zvýrazňovač chutí (E621), jedlá soľ, konzervačná látka (E250), želírujúca látka (E407), hemoglobín, dextróza, potravinárska vláknina, dymová aróma.</t>
   </si>
   <si>
-    <t>mlieko, jedlá soľ, mliekárenske kultúry, chlorid vápenatý E509, syridlo, farbivo E160b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>bageta špaldová 49,18 %</t>
   </si>
   <si>
@@ -873,18 +852,12 @@
     <t>šalát little gem 2,46 %</t>
   </si>
   <si>
-    <t>pšeničná múka, pitná voda, pekárska zmes (10%) (slnečnica, pšeničné otruby, ľan, špaldové vločky (5,5%), pražený jačmeň a raž, pšeničné vločky), špaldová múka (4,5%), droždie, jedlá soľ s jódom (jedlá soľ, jodičnan draselný), repkový olej, pšeničný glutén, emulgátor: E472e, cukor, múku upravujúca látka (E300, E920), ražná múka.</t>
-  </si>
-  <si>
     <t>pšenica, špalda, jačmeň, raž</t>
   </si>
   <si>
     <t>vajcia, sójové bôby, mlieko, orechy, sezamové semeno</t>
   </si>
   <si>
-    <t>repkový olej, pitná voda, kvasný ocot liehový, modifikovaný zemiakový škrob a stabilizátory (guma, guar, xanthan, karubín), vaječný prípravok (vaječné žĺtky, jedlá soľ, maltodextrín), horčica (pitná voda, horčičné semeno, kvasný ocot liehový, jedlá soľ, korenie), jedlá soľ, cukor, konzervant (sorban draselný), farbivo (karotény).</t>
-  </si>
-  <si>
     <t>vajce, horčica</t>
   </si>
   <si>
@@ -906,9 +879,6 @@
     <t>šalát little gem 5,99 %</t>
   </si>
   <si>
-    <t>pšeničná múka,pitná voda, repkový olej, droždie, regulátor kyslosti: E263, múku upravujúca látka: E300, E920, jedlá soľ s jódom, cukor</t>
-  </si>
-  <si>
     <t>červená paprika, pitná voda, ocot kvasný liehový, cukor, jedlá soľ, konzervačná látka (benzoan sodny)</t>
   </si>
   <si>
@@ -957,12 +927,6 @@
     <t>kápia sterilizovaná 4,58 %</t>
   </si>
   <si>
-    <t>vajcia, nálev ( pitná voda, jedlá soľ, regulátor kyslosti (kyselina mliečna a octová), antioxidanty E325, E326)</t>
-  </si>
-  <si>
-    <t>kurací prsný rezeň 60%, panáda (pšeničná múka, jedlá soľ), dextróza, korenie, cukor, droždie, farbivo (extrakt z papriky), pitná voda, pšeničná múka, slnečnicový a repkový olej v rôznom pomere, jedlá soľ, modifikovaný škrob, glukózový sirup, hydrolyzované hydinové bielkoviny, aróma, stabilizátory (difosforečnany, dextróza, citrón), antioxidant (askorban sodný)</t>
-  </si>
-  <si>
     <t>pšeničná múka</t>
   </si>
   <si>
@@ -972,9 +936,6 @@
     <t>vajcia, horčica, jačmeň, pšenica</t>
   </si>
   <si>
-    <t>repkový olej, pitná voda, barbecue omáčka (pitná voda, invertný cukor, paradajkový koncentrát, glukózový sirup, modifikovaný škrob, bylinný ocot, morská soľ, maltodextrín, korenie (obsahuje horčicu), jačmenný a pšeničný slad, udená aróma), paradajkový pretlak, cukor, ocot kvasný liehový, koreniaci prípravok (jedlá soľ, cukor, korenie, cibuľový prášok, aróma, maltodextrín, látka zvýrazňujúca chuť a vôňu (E621), antioxidant (E330), bylinky, regulátor kyslosti (E262)), modifikovaný škrob a stabilizátor (guma guar, xanthan), horčica (pitná voda, horčičné semeno, ocot kvasný liehový, jedlá soľ, korenie), vaječný žĺtok, koreniaci prípravok (jedlá soľ, horčičné semeno, maltodextrín, chren mletý, cukor, regulátor kyslosti (E330, E262), korenie, aróma, extrakty korení, farbivo (karotény)), farbivo (karotény), regulátor kyslosti (kyselina citrónová), jedlá soľ, udená aróma, konzervant (sorban draselný), koreniaci extrakt (extrakty korenia, cukor, glukózový sirup, pitná voda, repkový olej).</t>
-  </si>
-  <si>
     <t>bageta špaldová 38,46 %</t>
   </si>
   <si>
@@ -1008,9 +969,6 @@
     <t>gril.paprika+cibuľka 13,1 %</t>
   </si>
   <si>
-    <t>pšeničná múka, pitná voda, pšeničné otruby (4%), droždie, jedlá soľ s jódom (jedlá soľ, jodičnan draselný), repkový olej, múku upravujúca látka (E300).</t>
-  </si>
-  <si>
     <t>gril.paprika+cibuľka 12,88 %</t>
   </si>
   <si>
@@ -1020,9 +978,6 @@
     <t>panenka 20,6 %</t>
   </si>
   <si>
-    <t>majonéza petržlenová 18,88 %</t>
-  </si>
-  <si>
     <t>bageta grahamová 41,77 %</t>
   </si>
   <si>
@@ -1071,27 +1026,18 @@
     <t>morčacie mäso 76 %, pitná voda, modifikovaný zemiakový škrob (E1420), jedlá soľ, konzervačná látka (E250), stabilizátory (E450, E451), extrakty korenín, zahusťovadlo (E407), zvýraňovač chuti (E621), antioxidant (E316), aróma.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasterizovaná SMOTANA 78 % hm., kokosový rastinný tuk 18 % hm., sučené MLIEKO, sušná STVÁTKA, zemiakový škrob, jedlá soľ 0,5 % hm., smotanová kultúra </t>
-  </si>
-  <si>
     <t>nátierka mana 16,95 %</t>
   </si>
   <si>
     <t xml:space="preserve">bravčové stehno min. 60 %, pitná voda, živočíšne (bravčové) bielkoviny, zahusťovadlá (E407, E415), stabilizátory (E450, E451), dextróza, antioxidant (E300), zvýrazňovač chuti (E621), extrakty korenín, jedlá soľ, konzervačná látka (E250), modifikovaný škrob (E1422), paprika. </t>
   </si>
   <si>
-    <t>Repkový olej, pitná voda, chrenová pasta (15 %) (chren 75 %, pitná voda, repkový olej, ocot kvasný liehový, jedlá soľ, cukor, zahuťovací prípravok (modifikovaný kukuričný škrob, stabilizátor: guma guar), konzervant: disiřičitan draselný, regulátor kyslosti: kyselina citronová], emulgovaný vaječný žĺtok (vaječný žĺtok, jedlá sůl, maltodextrin), zahusťovací prípravok (modifikovaný zemiakový škrob, stabilizátory: guma guar, xanthan, karubin), hořčica (pitná voda, hořčičné semeno, ocot kvasný liehový, jedlá soľ, výťažok korení), cukor, jedlá soľ, ocot kvasný liehový, chrenová aroma (aroma, maltodextrin, modifikovaný škrob, antioxidant: extrakt s vysokým obsahom tokoferolu), konzervant: sorbant draselný.</t>
-  </si>
-  <si>
     <t>vajce, horčica, oxid siričitý (v koncentrácii vyšších než 10 mg/kg)</t>
   </si>
   <si>
     <t>panenka bravčová, Korenie grilovacie (jedlá soľ max. 43%, paprika, cesnak, koriander, HORČICA, rasca, protispekavá látka E341iii, rastlinný olej repkový) , olej slnečnicový rafinovaný</t>
   </si>
   <si>
-    <t>bravčový bok</t>
-  </si>
-  <si>
     <t>kuracie prsia, korenie gyros (jedlá soľ max. 39%, cesnak sušený granulovaný, paprika sladká mletá, zvýrazňovač chuti a arómy (glutaman sodný), cibuľa sušená granulovaná, čierne korenie mleté, paprika štipľavá mletá, oregano, rozmarín, šalvia), olej slnečnicový rafinovaný</t>
   </si>
   <si>
@@ -1123,13 +1069,70 @@
   </si>
   <si>
     <t>sezam, zeler, mlieko</t>
+  </si>
+  <si>
+    <t>dressing petržlenový 18,88 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bravčový bok bez kosti min 90%, jedlá soľ, konzervačná látka (E250), pitná voda, stabilizátor (E450, E451), zahusťovadlo (E407, E415), dextróza, živočíšne bravčové bielkoviny, antioxidant (E300), zvýrazňovač chuti (E621) </t>
+  </si>
+  <si>
+    <t>vajce, horčica, zeler</t>
+  </si>
+  <si>
+    <t>pasterizované odstredené MLIEKO, rastlinný tuk (palmový úplne hydrogenovaný 26%), jedlá soľ, stabilizátor (chlorid vápenatý), mliekarenské kultúry, syridlo, farbivo (karotény)</t>
+  </si>
+  <si>
+    <t>VAJCIA, nálev ( pitná voda, jedlá soľ, regulátor kyslosti (kyselina mliečna a octová), antioxidanty E325, E326)</t>
+  </si>
+  <si>
+    <t>kurací prsný rezeň 60%, panáda (PŠENIČNÁ múka, jedlá soľ), dextróza, korenie, cukor, droždie, farbivo (extrakt z papriky), pitná voda, PŠENIČNÁ múka, slnečnicový a repkový olej v rôznom pomere, jedlá soľ, modifikovaný škrob, glukózový sirup, hydrolyzované hydinové bielkoviny, aróma, stabilizátory (difosforečnany, dextróza, citrón), antioxidant (askorban sodný)</t>
+  </si>
+  <si>
+    <t>MLIEKO, jedlá soľ, mliekárenske kultúry, chlorid vápenatý E509, syridlo, farbivo E160b</t>
+  </si>
+  <si>
+    <t>repkový olej, pitná voda, barbecue omáčka (pitná voda, invertný cukor, paradajkový koncentrát, glukózový sirup, modifikovaný škrob, bylinný ocot, morská soľ, maltodextrín, korenie (obsahuje HORČICU), JAČMENNÝ a PŠENIČNÝ slad, udená aróma), paradajkový pretlak, cukor, ocot kvasný liehový, koreniaci prípravok (jedlá soľ, cukor, korenie, cibuľový prášok, aróma, maltodextrín, látka zvýrazňujúca chuť a vôňu (E621), antioxidant (E330), bylinky, regulátor kyslosti (E262)), modifikovaný škrob a stabilizátor (guma guar, xanthan), HORČICA (pitná voda, HORČIČNÉ SEMENO, ocot kvasný liehový, jedlá soľ, korenie), VAJEČNÝ žĺtok, koreniaci prípravok (jedlá soľ, HORČIČNÉ SEMENO, maltodextrín, chren mletý, cukor, regulátor kyslosti (E330, E262), korenie, aróma, extrakty korení, farbivo (karotény)), farbivo (karotény), regulátor kyslosti (kyselina citrónová), jedlá soľ, udená aróma, konzervant (sorban draselný), koreniaci extrakt (extrakty korenia, cukor, glukózový sirup, pitná voda, repkový olej).</t>
+  </si>
+  <si>
+    <t>repkový olej, pitná voda, paradjkový pretlak, cukor, kvasný ocot liehový, modifikovaný škrob a stabilizátory (E412, E415, E410), korenia (jedlá soľ, cukor, korenie, sušená zelenina (cibuľa), aroma, maltodextrín, látka zvýranzňujúca chuť a vôňu (E621), antioxidant (E330), byliny, regulátor kyslosti (E262), HORČICA, chren, extrakty korenia, farbivo (E160a), HORČICA (pitná voda, HORČIČNÉ semeno, kvasný ocot liehový, jedlá soľ, korenie), VAJEČNÉ žĺtky, regulátor kyslosti (E330), jedlá soľ, farbivo (karotény), konzervant (E202), extrakty korení (extrakty korení, cukor, glukózový sirup, pitná voda, repkový olej).</t>
+  </si>
+  <si>
+    <t>repkový olej, pitná voda, kvasný ocot liehový, modifikovaný zemiakový škrob a stabilizátory (guma, guar, xanthan, karubín), VAJEČNÝ prípravok (VAJEČNÉ žĺtky, jedlá soľ, maltodextrín), HORČICA (pitná voda, HORČIČNÉ semeno, kvasný ocot liehový, jedlá soľ, korenie), jedlá soľ, cukor, konzervant (sorban draselný), farbivo (karotény).</t>
+  </si>
+  <si>
+    <t>repkový olej, VAJEČNÉ žĺtky, kvasný ocot liehový, pitná voda, jedlá soľ</t>
+  </si>
+  <si>
+    <t>PŠENIČNÁ múka, pitná voda, PŠENIČNÉ otruby (4%), droždie, jedlá soľ s jódom (jedlá soľ, jodičnan draselný), repkový olej, múku upravujúca látka (E300).</t>
+  </si>
+  <si>
+    <t>PŠENIČNÁ múka, pitná voda, pekárska zmes (ľan, OVSENÉ vločky, zemiaková kaša, sušená SRVÁTKA, OVSENÁ múka, sušený CMAR, slnečnica, PŠENIČNÁ múka celozrnná, cukor, JAČMENNÁ sladová múka, emulgátory (E471, E472e), repkový olej, múku upravujúca látka: E300, SEZAM, regulátory kyslosti (E330, E270, E334), repkový olej), droždie, ľan, PŠENIČNÉ otruby, jedlá soľ s jódom, repkový olej, PŠENIČNÝ LEPOK, múku upravujúca látka: E920, RAŽNÁ múka.</t>
+  </si>
+  <si>
+    <t>PŠENIČNÁ múka,pitná voda, repkový olej, droždie, regulátor kyslosti: E263, múku upravujúca látka: E300, E920, jedlá soľ s jódom, cukor</t>
+  </si>
+  <si>
+    <t>PŠENIČNÁ múka, pitná voda, pekárska zmes (10%) (slnečnica, PŠENIČNÉ otruby, ľan, ŠPALDOVÉ vločky (5,5%), pražený JAČMEŇ a RAŽ, PŠENIČNÉ vločky), ŠPALDOVÁ múka (4,5%), droždie, jedlá soľ s jódom (jedlá soľ, jodičnan draselný), repkový olej, PŠENIČNÝ GLUTÉN, emulgátor: E472e, cukor, múku upravujúca látka (E300, E920), RAŽNÁ múka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuracie prsia 70 %, pitná voda, PŠENIČNÁ múka, rastlinný olej (BAVLNÍKOVÝ a SÓJOVÝ olej úplne hudrogenovaný), ryžova múka, SÓJOVA bielkovina, jedlá soľ, stabilizátory" trifosforečnan sodný, dihydrogén fosforečnan sodný, maltodextrín, cukor, farbivo: kurkumin, zahusťovadlo: xantánová guma, prírodná zelerová aróma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasterizovaná SMOTANA 78 % hm., kokosový rastinný tuk 18 % hm., sučené MLIEKO, sušná STVÁTKA, zemiakový škrob, jedlá soľ 0,5 % hm., smotanová kultúra </t>
+  </si>
+  <si>
+    <t>Repkový olej, pitná voda, chrenová pasta (15 %) (chren 75 %, pitná voda, repkový olej, ocot kvasný liehový, jedlá soľ, cukor, zahuťovací prípravok (modifikovaný kukuričný škrob, stabilizátor: guma guar), konzervant: disiřičitan draselný, regulátor kyslosti: kyselina citronová), emulgovaný VAJEČNÝ žĺtok (VAJEČNÝ žĺtok, jedlá soľ, maltodextrin), zahusťovací prípravok (modifikovaný zemiakový škrob, stabilizátory: guma guar, xanthan, karubín), HORČICA (pitná voda, HORČIČNÉ SEMENO, ocot kvasný liehový, jedlá soľ, výťažok korení), cukor, jedlá soľ, ocot kvasný liehový, chrenová aróma (aróma, maltodextrín, modifikovaný škrob, antioxidant: extrakt s vysokým obsahom tokoferolu), konzervant: sorbant draselný.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitná voda, repkový olej, modifikovaný škrob a stabilizátory (E412, E415), VAJEČNÝ prípravok (VAJEČNÉ žĺtly, jedlá soľ, maltodextrín), HORČICA (pitná voda, HORČIČNÉ SEMENO, ocot kvasný liehový, jedlá soľ, korenie), kvasný ocot liehový, jedlá soľ, koreniaci prípravok (jedlá soľ, látka zvýrazňujúca chuť a vôňu (E621), sušená zelenina (mrkva, cibuľa, petržlen, pór, ZELER), škrob, cukor, byliny a korenie (obsahuje ZELER), aróma, farbivo (E101), sušený petržlen (0,45 %), cukor, konzervant (sorban draselný). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,13 +1152,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1205,7 +1201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1252,26 +1248,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1298,9 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8357,17 +8335,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8396,7 +8375,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -8407,7 +8386,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -8431,18 +8410,18 @@
         <v>1.4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B3" s="4">
         <v>54</v>
@@ -8466,10 +8445,10 @@
         <v>2.1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>215</v>
@@ -8477,7 +8456,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B4" s="4">
         <v>54</v>
@@ -8501,18 +8480,18 @@
         <v>0.9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B5" s="4">
         <v>36</v>
@@ -8539,15 +8518,15 @@
         <v>25</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -8571,18 +8550,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7" s="4">
         <v>12</v>
@@ -8606,33 +8585,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8644,8 +8604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8679,7 +8639,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -8690,7 +8650,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -8714,16 +8674,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
@@ -8747,18 +8707,18 @@
         <v>0.9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" s="4">
         <v>45</v>
@@ -8782,18 +8742,18 @@
         <v>2.95</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B5" s="4">
         <v>26</v>
@@ -8820,15 +8780,15 @@
         <v>25</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B6" s="4">
         <v>28</v>
@@ -8852,16 +8812,18 @@
         <v>0.3</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" s="4">
         <v>20</v>
@@ -8885,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -8904,8 +8866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8939,7 +8901,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -8950,7 +8912,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -8974,18 +8936,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
@@ -9009,18 +8971,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B4" s="4">
         <v>56</v>
@@ -9044,10 +9006,10 @@
         <v>2.1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>99</v>
@@ -9055,7 +9017,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B5" s="4">
         <v>22</v>
@@ -9079,18 +9041,18 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
@@ -9114,13 +9076,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -9132,8 +9094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9167,7 +9129,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -9178,7 +9140,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B2" s="4">
         <v>80</v>
@@ -9202,16 +9164,18 @@
         <v>1.4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B3" s="4">
         <v>30</v>
@@ -9235,16 +9199,16 @@
         <v>1.6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B4" s="4">
         <v>35</v>
@@ -9267,15 +9231,19 @@
       <c r="H4" s="4">
         <v>1.075</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -9298,13 +9266,19 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -9327,13 +9301,19 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -9356,10 +9336,14 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -9372,8 +9356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9407,7 +9391,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -9418,7 +9402,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -9442,18 +9426,18 @@
         <v>1.4</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B3" s="4">
         <v>50</v>
@@ -9477,16 +9461,16 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>265</v>
+      <c r="A4" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="B4" s="4">
         <v>62</v>
@@ -9509,13 +9493,19 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B5" s="4">
         <v>10</v>
@@ -9538,9 +9528,15 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9552,8 +9548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9587,7 +9583,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -9598,7 +9594,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -9622,18 +9618,18 @@
         <v>1.4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B3" s="4">
         <v>45</v>
@@ -9657,18 +9653,18 @@
         <v>0.9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B4" s="4">
         <v>78</v>
@@ -9692,18 +9688,18 @@
         <v>1.7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B5" s="4">
         <v>10</v>
@@ -9727,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -9746,8 +9742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9781,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -9792,7 +9788,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -9816,18 +9812,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
@@ -9851,16 +9847,18 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B4" s="4">
         <v>54</v>
@@ -9884,10 +9882,10 @@
         <v>2.1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>99</v>
@@ -9895,7 +9893,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B5" s="4">
         <v>28</v>
@@ -9919,16 +9917,18 @@
         <v>0.3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
@@ -9952,18 +9952,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B7" s="4">
         <v>12</v>
@@ -9987,13 +9987,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -10006,8 +10006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10041,7 +10041,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -10076,18 +10076,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B3" s="4">
         <v>90</v>
@@ -10111,18 +10111,18 @@
         <v>0.3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B4" s="4">
         <v>54</v>
@@ -10146,10 +10146,10 @@
         <v>2.1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>99</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B5" s="4">
         <v>28</v>
@@ -10181,18 +10181,18 @@
         <v>0.3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
@@ -10216,18 +10216,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B7" s="4">
         <v>12</v>
@@ -10251,13 +10251,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -10270,8 +10270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10305,7 +10305,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -10316,7 +10316,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B2" s="4">
         <v>95</v>
@@ -10340,16 +10340,18 @@
         <v>1.2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
@@ -10373,16 +10375,18 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B4" s="4">
         <v>48</v>
@@ -10408,14 +10412,16 @@
       <c r="I4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B5" s="4">
         <v>16</v>
@@ -10438,15 +10444,19 @@
       <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B6" s="4">
         <v>30</v>
@@ -10469,8 +10479,12 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
   </sheetData>
@@ -10483,8 +10497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10518,7 +10532,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -10529,7 +10543,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B2" s="4">
         <v>95</v>
@@ -10553,16 +10567,18 @@
         <v>1.2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>299</v>
+      <c r="A3" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="B3" s="4">
         <v>44</v>
@@ -10585,13 +10601,19 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B4" s="4">
         <v>48</v>
@@ -10617,14 +10639,16 @@
       <c r="I4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B5" s="4">
         <v>16</v>
@@ -10647,15 +10671,19 @@
       <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B6" s="4">
         <v>30</v>
@@ -10678,8 +10706,12 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
   </sheetData>
@@ -10800,8 +10832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10835,7 +10867,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -10846,7 +10878,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -10870,18 +10902,18 @@
         <v>1.4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
@@ -10905,18 +10937,18 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B4" s="4">
         <v>42</v>
@@ -10940,18 +10972,18 @@
         <v>2.91</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B5" s="4">
         <v>26</v>
@@ -10978,15 +11010,15 @@
         <v>25</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B6" s="4">
         <v>12</v>
@@ -11010,18 +11042,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B7" s="4">
         <v>10</v>
@@ -11045,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -11064,8 +11096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11099,7 +11131,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -11110,7 +11142,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -11134,18 +11166,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
@@ -11172,15 +11204,15 @@
         <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B4" s="4">
         <v>10</v>
@@ -11204,18 +11236,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B5" s="4">
         <v>46</v>
@@ -11239,18 +11271,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
@@ -11274,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -11293,8 +11325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11328,7 +11360,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -11339,7 +11371,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -11363,18 +11395,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
@@ -11398,16 +11430,18 @@
         <v>1.3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>312</v>
+      <c r="A4" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="B4" s="4">
         <v>44</v>
@@ -11430,13 +11464,17 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B5" s="4">
         <v>12</v>
@@ -11460,18 +11498,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B6" s="4">
         <v>28</v>
@@ -11495,11 +11533,13 @@
         <v>0.3</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -11547,7 +11587,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>28</v>
@@ -11558,7 +11598,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B2" s="4">
         <v>750</v>
@@ -11587,7 +11627,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B3" s="4">
         <v>200</v>
@@ -11616,7 +11656,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B4" s="4">
         <v>23</v>
@@ -11645,7 +11685,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B5" s="4">
         <v>70</v>
@@ -11674,7 +11714,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B6" s="4">
         <v>50</v>
@@ -11728,7 +11768,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4">
         <v>50</v>
@@ -11784,7 +11824,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="26" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="25" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -8604,8 +8604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8682,143 +8682,143 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>231</v>
+      <c r="A3" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4">
-        <v>86</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D3" s="4">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="E3" s="4">
-        <v>0.4</v>
+        <v>1.65</v>
       </c>
       <c r="F3" s="4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="4">
-        <v>1.8</v>
+        <v>15.8</v>
       </c>
       <c r="H3" s="4">
-        <v>0.9</v>
+        <v>2.95</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>232</v>
+      <c r="A4" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B4" s="4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>2.4900000000000002</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
-        <v>1.65</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="4">
-        <v>15.8</v>
+        <v>1.8</v>
       </c>
       <c r="H4" s="4">
-        <v>2.95</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B5" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
-        <v>25.5</v>
+        <v>10.6</v>
       </c>
       <c r="D5" s="4">
-        <v>17.100000000000001</v>
+        <v>3.23</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>23</v>
+        <v>12.6</v>
       </c>
       <c r="H5" s="4">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>10.6</v>
+        <v>25.5</v>
       </c>
       <c r="D6" s="4">
-        <v>3.23</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>12.6</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8867,7 +8867,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8946,73 +8946,73 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>239</v>
+      <c r="A3" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4">
-        <v>51.7</v>
+        <v>3.7</v>
       </c>
       <c r="D3" s="4">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="4">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G3" s="4">
-        <v>0.69</v>
+        <v>13.8</v>
       </c>
       <c r="H3" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>325</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>240</v>
+      <c r="A4" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="B4" s="4">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E4" s="4">
         <v>3.7</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
       <c r="F4" s="4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G4" s="4">
-        <v>13.8</v>
+        <v>0.69</v>
       </c>
       <c r="H4" s="4">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9174,94 +9174,94 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.4340000000000011</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.286</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.075</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4">
         <v>30</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="4">
         <v>1.6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="4">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8.4340000000000011</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.286</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="G4" s="4">
-        <v>34.386000000000003</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.075</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -9278,25 +9278,25 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -9357,7 +9357,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9436,71 +9436,71 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="4">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4">
         <v>50</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>36</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="4">
         <v>2.4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="4">
         <v>15.8</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="4">
         <v>12.2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="4">
         <v>1.3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="4">
         <v>0.4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="4">
-        <v>62</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9549,7 +9549,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9629,72 +9629,72 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
-        <v>86</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D3" s="4">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="E3" s="4">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="4">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4">
-        <v>8.1999999999999993</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
-        <v>11</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="4">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H4" s="4">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10007,7 +10007,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10192,28 +10192,28 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B6" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="4">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>227</v>
@@ -10222,33 +10222,33 @@
         <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>227</v>
@@ -10257,7 +10257,7 @@
         <v>227</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -10271,7 +10271,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10350,99 +10350,99 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>278</v>
+      <c r="A3" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4">
-        <v>36</v>
+        <v>9.2560000000000002</v>
       </c>
       <c r="D3" s="4">
-        <v>2.4</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="E3" s="4">
-        <v>15.8</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="F3" s="4">
-        <v>12.2</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="G3" s="4">
-        <v>1.3</v>
+        <v>27.512999999999998</v>
       </c>
       <c r="H3" s="4">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>279</v>
+      <c r="A4" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B4" s="4">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>9.2560000000000002</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4">
-        <v>1.6040000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="E4" s="4">
-        <v>0.82499999999999996</v>
+        <v>15.8</v>
       </c>
       <c r="F4" s="4">
-        <v>0.32550000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="G4" s="4">
-        <v>27.512999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="H4" s="4">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B5" s="4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
-        <v>32.85</v>
+        <v>1.25</v>
       </c>
       <c r="D5" s="4">
-        <v>13.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>4.3120000000000003</v>
       </c>
       <c r="F5" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>13.5</v>
+        <v>1.1715</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>227</v>
@@ -10450,34 +10450,32 @@
       <c r="J5" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" s="4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>1.25</v>
+        <v>32.85</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1</v>
+        <v>13.2</v>
       </c>
       <c r="E6" s="4">
-        <v>4.3120000000000003</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G6" s="4">
-        <v>1.1715</v>
+        <v>13.5</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>227</v>
@@ -10485,7 +10483,9 @@
       <c r="J6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10497,8 +10497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10577,99 +10577,99 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>316</v>
+      <c r="A3" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="B3" s="4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>9.2560000000000002</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>27.512999999999998</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>284</v>
+      <c r="A4" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="B4" s="4">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4">
-        <v>9.2560000000000002</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>1.6040000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0.82499999999999996</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.32550000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>27.512999999999998</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
-        <v>32.85</v>
+        <v>1.25</v>
       </c>
       <c r="D5" s="4">
-        <v>13.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>4.3120000000000003</v>
       </c>
       <c r="F5" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>13.5</v>
+        <v>1.1715</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>227</v>
@@ -10677,34 +10677,32 @@
       <c r="J5" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B6" s="4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>1.25</v>
+        <v>32.85</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1</v>
+        <v>13.2</v>
       </c>
       <c r="E6" s="4">
-        <v>4.3120000000000003</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G6" s="4">
-        <v>1.1715</v>
+        <v>13.5</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>227</v>
@@ -10712,7 +10710,9 @@
       <c r="J6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10833,7 +10833,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10913,72 +10913,72 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4">
-        <v>36</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D3" s="4">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1.3</v>
+        <v>15.2</v>
       </c>
       <c r="H3" s="4">
-        <v>0.4</v>
+        <v>2.91</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0900000000000001</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="G4" s="4">
-        <v>15.2</v>
+        <v>1.3</v>
       </c>
       <c r="H4" s="4">
-        <v>2.91</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11097,7 +11097,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11177,98 +11177,98 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4">
-        <v>31</v>
+        <v>1.8</v>
       </c>
       <c r="D3" s="4">
-        <v>24</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="4">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="G3" s="4">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
       <c r="H3" s="4">
-        <v>0.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>293</v>
+      <c r="A4" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>0.6</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B5" s="4">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="F5" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>13.5</v>
+        <v>0.9</v>
       </c>
       <c r="H5" s="4">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>227</v>
@@ -11277,30 +11277,30 @@
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>295</v>
+      <c r="A6" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="B6" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -11326,7 +11326,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11405,141 +11405,141 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>296</v>
+      <c r="A3" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>297</v>
+      <c r="A4" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B4" s="4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
-        <v>0.24</v>
+        <v>10.6</v>
       </c>
       <c r="D5" s="4">
-        <v>0.04</v>
+        <v>3.23</v>
       </c>
       <c r="E5" s="4">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="F5" s="4">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>0.7</v>
+        <v>12.6</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>217</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>10.6</v>
+        <v>0.24</v>
       </c>
       <c r="D6" s="4">
-        <v>3.23</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="4">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="F6" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.3</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -11552,8 +11552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="25" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="25" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -1252,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1280,7 +1280,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -9436,7 +9435,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>255</v>
       </c>
       <c r="B3" s="4">
@@ -10497,8 +10496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10612,29 +10611,29 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B4" s="4">
         <v>44</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>318</v>
@@ -11405,7 +11404,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B3" s="4">
@@ -11552,7 +11551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="25" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="22" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="337">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -1014,9 +1014,6 @@
     <t>majonéza chrenová 16,39 %</t>
   </si>
   <si>
-    <t>šunka zaúdená 18,03 %</t>
-  </si>
-  <si>
     <t>kápia sterilizovaná 4,92 %</t>
   </si>
   <si>
@@ -1116,9 +1113,6 @@
     <t>PŠENIČNÁ múka, pitná voda, pekárska zmes (10%) (slnečnica, PŠENIČNÉ otruby, ľan, ŠPALDOVÉ vločky (5,5%), pražený JAČMEŇ a RAŽ, PŠENIČNÉ vločky), ŠPALDOVÁ múka (4,5%), droždie, jedlá soľ s jódom (jedlá soľ, jodičnan draselný), repkový olej, PŠENIČNÝ GLUTÉN, emulgátor: E472e, cukor, múku upravujúca látka (E300, E920), RAŽNÁ múka.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kuracie prsia 70 %, pitná voda, PŠENIČNÁ múka, rastlinný olej (BAVLNÍKOVÝ a SÓJOVÝ olej úplne hudrogenovaný), ryžova múka, SÓJOVA bielkovina, jedlá soľ, stabilizátory" trifosforečnan sodný, dihydrogén fosforečnan sodný, maltodextrín, cukor, farbivo: kurkumin, zahusťovadlo: xantánová guma, prírodná zelerová aróma. </t>
-  </si>
-  <si>
     <t xml:space="preserve">pasterizovaná SMOTANA 78 % hm., kokosový rastinný tuk 18 % hm., sučené MLIEKO, sušná STVÁTKA, zemiakový škrob, jedlá soľ 0,5 % hm., smotanová kultúra </t>
   </si>
   <si>
@@ -1126,6 +1120,18 @@
   </si>
   <si>
     <t xml:space="preserve">pitná voda, repkový olej, modifikovaný škrob a stabilizátory (E412, E415), VAJEČNÝ prípravok (VAJEČNÉ žĺtly, jedlá soľ, maltodextrín), HORČICA (pitná voda, HORČIČNÉ SEMENO, ocot kvasný liehový, jedlá soľ, korenie), kvasný ocot liehový, jedlá soľ, koreniaci prípravok (jedlá soľ, látka zvýrazňujúca chuť a vôňu (E621), sušená zelenina (mrkva, cibuľa, petržlen, pór, ZELER), škrob, cukor, byliny a korenie (obsahuje ZELER), aróma, farbivo (E101), sušený petržlen (0,45 %), cukor, konzervant (sorban draselný). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bravčové stehno min. 55 %, pitná voda, jedlá soľ, konzervačná látka (E250), bravčové kože, modifikovaný škrob (E1422), zahusťovadlo (E407, E415), živočíšna (bravčová) bielkovina, stabilizátor (E450, E451), dextróza, zvýrazňovač chuti (E621), antioxidant (E316), extrakty korenín. </t>
+  </si>
+  <si>
+    <t>Wellness Šunka zaúdená 18,03 %</t>
+  </si>
+  <si>
+    <t>kuracie mäso(65%), rastlinný olej (bavlníkový a slnečnicový), PŠENIČNÁ múka, voda, kukuričná múka, škrob, STRÚHANKA (PŠENIČNÁ múka, jedlá soľ, droždie), jedlá soľ, stabilizátor (E450i), kypriaca látka (E450i), sušené odstredené MLIEKO, dextróza, korenie a zahusťovadlo (E412).</t>
+  </si>
+  <si>
+    <t>pšenica, mlieko, strúhanka</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,12 +1197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1280,7 +1280,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8415,7 +8414,7 @@
         <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8485,7 +8484,7 @@
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8520,7 +8519,7 @@
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8677,7 +8676,7 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8747,7 +8746,7 @@
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8782,7 +8781,7 @@
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8817,7 +8816,7 @@
         <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -8941,7 +8940,7 @@
         <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9011,7 +9010,7 @@
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9169,7 +9168,7 @@
         <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9204,7 +9203,7 @@
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9237,7 +9236,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9355,8 +9354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9431,42 +9430,42 @@
         <v>229</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B3" s="4">
         <v>62</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9623,7 +9622,7 @@
         <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9658,7 +9657,7 @@
         <v>269</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9693,7 +9692,7 @@
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9817,7 +9816,7 @@
         <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9852,7 +9851,7 @@
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9922,7 +9921,7 @@
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10081,7 +10080,7 @@
         <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10110,13 +10109,13 @@
         <v>0.3</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10186,7 +10185,7 @@
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10345,7 +10344,7 @@
         <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10380,7 +10379,7 @@
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10415,7 +10414,7 @@
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10483,7 +10482,7 @@
         <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10496,7 +10495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -10572,7 +10571,7 @@
         <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10607,12 +10606,12 @@
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" s="4">
         <v>44</v>
@@ -10636,13 +10635,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10710,7 +10709,7 @@
         <v>227</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10907,7 +10906,7 @@
         <v>227</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10942,7 +10941,7 @@
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10977,7 +10976,7 @@
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11012,7 +11011,7 @@
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11171,7 +11170,7 @@
         <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11206,12 +11205,12 @@
         <v>227</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="4">
         <v>40</v>
@@ -11241,7 +11240,7 @@
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11325,7 +11324,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11400,33 +11399,33 @@
         <v>244</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>297</v>
+      <c r="A3" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="B3" s="4">
         <v>44</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>227</v>
@@ -11434,7 +11433,9 @@
       <c r="J3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11462,18 +11463,18 @@
         <v>1.3</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="4">
         <v>28</v>
@@ -11503,12 +11504,12 @@
         <v>227</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6" s="4">
         <v>12</v>
@@ -11597,7 +11598,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="4">
         <v>750</v>
@@ -11626,7 +11627,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" s="4">
         <v>200</v>
@@ -11655,7 +11656,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="4">
         <v>23</v>
@@ -11684,7 +11685,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="4">
         <v>70</v>
@@ -11713,7 +11714,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="4">
         <v>50</v>
@@ -11767,7 +11768,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="4">
         <v>50</v>
@@ -11823,7 +11824,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="22" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="33" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,12 @@
     <sheet name="x_maja_bageta" sheetId="31" r:id="rId31"/>
     <sheet name="x_bavorska_bageta" sheetId="32" r:id="rId32"/>
     <sheet name="x_zemiakovy_salat" sheetId="33" r:id="rId33"/>
+    <sheet name="_t_bazalkove_pesto" sheetId="37" r:id="rId34"/>
+    <sheet name="t_salat_caesar" sheetId="34" r:id="rId35"/>
+    <sheet name="t_salat_s_pecenou_cviklou" sheetId="35" r:id="rId36"/>
+    <sheet name="t_salat_cestovinovy_s_kuracim" sheetId="36" r:id="rId37"/>
+    <sheet name="t_salat_cous_cous" sheetId="38" r:id="rId38"/>
+    <sheet name="t_salat_exoticky_mix" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="382">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -1133,11 +1139,149 @@
   <si>
     <t>pšenica, mlieko, strúhanka</t>
   </si>
+  <si>
+    <t>Kuracie prsia</t>
+  </si>
+  <si>
+    <t>horčica, lepok, vajce, sója, mlieko, zeler, sézam, SO2</t>
+  </si>
+  <si>
+    <t>Krutóny</t>
+  </si>
+  <si>
+    <t>pšeničná múka, palmový olej, ochucujúca zmes (cukor, cibuľa, soľ, údená soľ, kvasnicový extrakt, aróma, regulátor kyslosti (kyselina citrónová), farbivo (paprikový extrakt), soľ, kvasnice).</t>
+  </si>
+  <si>
+    <t>lepok, mlieko, horčica</t>
+  </si>
+  <si>
+    <t>Syr parmezán</t>
+  </si>
+  <si>
+    <t>mlieko, jedlá soľ, syridlo rastlinného pôvodu, konzervačná látka (lyzozým) - vaječná bielkovina.</t>
+  </si>
+  <si>
+    <t>Caesar Dressing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitná voda, 23% jogurt (mlieko, mliečna bielkovina, jogurtová a probiotická kultúra), 20% repkový olej, kvasný ocot liehový, cukor, 2% parmezán, jedlá soľ, sušené odtučnené mlieko, fermentová sója, paradajkový pretlak, jablčna šťava, zahusťovadlá (xantánová guma, pektíny), regulátor kyslosti (kyselina citrónová), zmes bylín, maltodextrín, aróma, konzervačné látky (kyselina benzoová, kyselina sorbová), zmes korenín. </t>
+  </si>
+  <si>
+    <t>mlieko, sója</t>
+  </si>
+  <si>
+    <t>Cvikla</t>
+  </si>
+  <si>
+    <t>Feta slaný syr</t>
+  </si>
+  <si>
+    <t>mlieko, mliekarenská kultúra, syridlo, jedlá soľ.</t>
+  </si>
+  <si>
+    <t>Balsamico</t>
+  </si>
+  <si>
+    <t>koncentrovaný hrtoznový mušt, balzamikový ocot z Modeny 20% (vinný ocot, koncentrovaný hroznový mušt, farbivo (karamel E150d), modifikovaný kukuričný škrob, antioxidant (E224), disiričitan draselný.</t>
+  </si>
+  <si>
+    <t>siričitany</t>
+  </si>
+  <si>
+    <t>Granátové jablko</t>
+  </si>
+  <si>
+    <t>Rukola</t>
+  </si>
+  <si>
+    <t>Extra panenský olivový olej</t>
+  </si>
+  <si>
+    <t>Semolinove cestoviny</t>
+  </si>
+  <si>
+    <t>semolina - múka z tvrdozrnej pšenice.</t>
+  </si>
+  <si>
+    <t>Sušené paradajky v slnečnicovom oleji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sušené paradajky (60%), slnečnicový olej, vínny ocot, oregano, bazalka, jednlá soľ, regulátor kyslosti (kyselina citrónová), antioxidant (kyselina askorbová). Obsahuje siričitany. </t>
+  </si>
+  <si>
+    <t>Bazalkové pesto</t>
+  </si>
+  <si>
+    <t>Slnečnicový olej rafinovaný</t>
+  </si>
+  <si>
+    <t>Arašidy lúpané, pražené</t>
+  </si>
+  <si>
+    <t>arašidy (97,5 %), palmový olej.</t>
+  </si>
+  <si>
+    <t>orechy</t>
+  </si>
+  <si>
+    <t>bazalka, slnečnicový olej, arašidy (arašidy (97,5 %), palmový olej), soľ</t>
+  </si>
+  <si>
+    <t>kuracie prsia, grilovacie korenie (morská soľ, trstinový cukor, sušené paradajky, zemikový škrob, cibuľa sladká, paprika, oregano, cesnak, petržlenová vňať, slnečnicvý olej, tymián, rozmarín, koriander, horčica, aróma, protihrudkujúca látka (oxid kremičitý), zmes bylín, zmes korenia, škorica, paprikový extrakt. )</t>
+  </si>
+  <si>
+    <t>Kuskus</t>
+  </si>
+  <si>
+    <t>naparená krupica z pšenice tvrdej, sušená.</t>
+  </si>
+  <si>
+    <t>arašidy, orechy, sezam</t>
+  </si>
+  <si>
+    <t>glutén, arašidy, orechy, sezam</t>
+  </si>
+  <si>
+    <t>Jogurt biely</t>
+  </si>
+  <si>
+    <t>mlieko, smotana, sušené mlieko, mliekarenské kultúry (Lactobacillus delbrueckii subsp. bulgaricus, Streptococcus thermophilus a Bifidobacterium lactis).</t>
+  </si>
+  <si>
+    <t>Baklažán</t>
+  </si>
+  <si>
+    <t>Paprika čerstvá</t>
+  </si>
+  <si>
+    <t>Mäta čerstvá</t>
+  </si>
+  <si>
+    <t>Melón</t>
+  </si>
+  <si>
+    <t>Ananás</t>
+  </si>
+  <si>
+    <t>Hrozno</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Physalis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1252,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1279,6 +1423,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9354,7 +9517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -10831,7 +10994,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11095,7 +11258,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11856,6 +12019,1648 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>92</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="4">
+        <v>300</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="19"/>
+    <col min="12" max="12" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="20">
+        <f>(B2/185)*100</f>
+        <v>41.621621621621621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="4">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L6" si="0">(B3/185)*100</f>
+        <v>21.081081081081081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" si="0"/>
+        <v>16.216216216216218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="4">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="0"/>
+        <v>13.513513513513514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="4">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>7.5675675675675684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="19"/>
+    <col min="12" max="12" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>142</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="20">
+        <f>(B2/252)*100</f>
+        <v>56.349206349206348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L8" si="0">(B3/252)*100</f>
+        <v>13.888888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="4">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17.77</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>18.41</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" si="0"/>
+        <v>10.317460317460316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="4">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>6.3492063492063489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="0"/>
+        <v>3.9682539682539679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>1.984126984126984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="19"/>
+    <col min="12" max="12" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="4">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2" s="20">
+        <f>(B2/200)*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="4">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L6" si="0">(B3/200)*100</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="E4" s="4">
+        <v>23.53</v>
+      </c>
+      <c r="F4" s="4">
+        <v>23.53</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45.9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23"/>
+    <col min="12" max="12" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="4">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="20">
+        <f>(B2/264)*100</f>
+        <v>51.136363636363633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="4">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="E3" s="4">
+        <v>23.53</v>
+      </c>
+      <c r="F3" s="4">
+        <v>23.53</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L9" si="0">(B3/264)*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" si="0"/>
+        <v>9.4696969696969688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="4">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>5.6818181818181817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="4">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="0"/>
+        <v>5.6818181818181817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="4">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45.9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>5.3030303030303028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" si="0"/>
+        <v>1.893939393939394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="4">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2">
+        <f>(B2/200)*100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="4">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="0">(B3/200)*100</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d58560\Documents\pycharm_projects\etikety\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.toth\Documents\python\maual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="619" firstSheet="33" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="737" firstSheet="46" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -51,8 +51,22 @@
     <sheet name="t_salat_cestovinovy_s_kuracim" sheetId="36" r:id="rId37"/>
     <sheet name="t_salat_cous_cous" sheetId="38" r:id="rId38"/>
     <sheet name="t_salat_exoticky_mix" sheetId="39" r:id="rId39"/>
+    <sheet name="k_debrecinka_psenicna" sheetId="40" r:id="rId40"/>
+    <sheet name="k_debrecinka_psenicna_mala" sheetId="41" r:id="rId41"/>
+    <sheet name="k_francuzka_psenicna" sheetId="42" r:id="rId42"/>
+    <sheet name="k_gyros_psenicna" sheetId="43" r:id="rId43"/>
+    <sheet name="k_gyros_psenicna_mala" sheetId="44" r:id="rId44"/>
+    <sheet name="k_labuznik_spaldova" sheetId="45" r:id="rId45"/>
+    <sheet name="k_morcacia_spaldova" sheetId="46" r:id="rId46"/>
+    <sheet name="k_moravia_staroceska" sheetId="47" r:id="rId47"/>
+    <sheet name="k_kuracie_stripsy_psenicna" sheetId="48" r:id="rId48"/>
+    <sheet name="k_kuracie_stripsy_psenicna_mala" sheetId="49" r:id="rId49"/>
+    <sheet name="k_sunkova_spaldova" sheetId="50" r:id="rId50"/>
+    <sheet name="k_sunkova_psenicna_mala" sheetId="51" r:id="rId51"/>
+    <sheet name="k_farmarska_psenicna" sheetId="52" r:id="rId52"/>
+    <sheet name="k_bavaria_staroceska" sheetId="53" r:id="rId53"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="425">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -1274,13 +1288,142 @@
   <si>
     <t>Physalis</t>
   </si>
+  <si>
+    <t>debrecínka  %</t>
+  </si>
+  <si>
+    <t>bageta francúzska  %</t>
+  </si>
+  <si>
+    <t>majonéza RISO  %</t>
+  </si>
+  <si>
+    <t>michalovská tehla  %</t>
+  </si>
+  <si>
+    <t>cibuľka %</t>
+  </si>
+  <si>
+    <t>šalát little gem %</t>
+  </si>
+  <si>
+    <t>šunka bravčová  %</t>
+  </si>
+  <si>
+    <t>majonéza budejovická  %</t>
+  </si>
+  <si>
+    <t>syr tehla  %</t>
+  </si>
+  <si>
+    <t>uhorka %</t>
+  </si>
+  <si>
+    <t>kápia sterilizovaná  %</t>
+  </si>
+  <si>
+    <t>bageta picollo  %</t>
+  </si>
+  <si>
+    <t>cibuľka  %</t>
+  </si>
+  <si>
+    <t>šalát little gem  %</t>
+  </si>
+  <si>
+    <t>bageta francúzska %</t>
+  </si>
+  <si>
+    <t>kurací gyros  %</t>
+  </si>
+  <si>
+    <t>majonéza BBQ  %</t>
+  </si>
+  <si>
+    <t>uhorka  %</t>
+  </si>
+  <si>
+    <t>bageta piccolo %</t>
+  </si>
+  <si>
+    <t>bageta špaldová  %</t>
+  </si>
+  <si>
+    <t>zemiakový šalát  %</t>
+  </si>
+  <si>
+    <t>vajce  %</t>
+  </si>
+  <si>
+    <t>šunka morčacia %</t>
+  </si>
+  <si>
+    <t>nátierka mana %</t>
+  </si>
+  <si>
+    <t>paprika farebná %</t>
+  </si>
+  <si>
+    <t>bageta staročeská %</t>
+  </si>
+  <si>
+    <t>moravské mäso %</t>
+  </si>
+  <si>
+    <t>majonéza budejovická %</t>
+  </si>
+  <si>
+    <t>vajce %</t>
+  </si>
+  <si>
+    <t>michalovská tehla %</t>
+  </si>
+  <si>
+    <t>zelená paprika %</t>
+  </si>
+  <si>
+    <t>stripsy I  %</t>
+  </si>
+  <si>
+    <t>bageta picollo %</t>
+  </si>
+  <si>
+    <t>bageta špaldová %</t>
+  </si>
+  <si>
+    <t>šunka bravčová %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majonéza lahôdková % </t>
+  </si>
+  <si>
+    <t>paradajka %</t>
+  </si>
+  <si>
+    <t>panenka  %</t>
+  </si>
+  <si>
+    <t>gril.paprika+cibuľka %</t>
+  </si>
+  <si>
+    <t>slaninka %</t>
+  </si>
+  <si>
+    <t>Wellness Šunka zaúdená  %</t>
+  </si>
+  <si>
+    <t>majonéza chrenová  %</t>
+  </si>
+  <si>
+    <t>kápia sterilizovaná %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1307,7 +1450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,6 +1484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1433,7 +1582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1443,6 +1592,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8499,7 +8649,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8766,7 +8916,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9028,7 +9178,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9256,7 +9406,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9710,7 +9860,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10168,7 +10318,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10432,7 +10582,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11258,7 +11408,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11487,7 +11637,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13390,7 +13540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L7"/>
     </sheetView>
   </sheetViews>
@@ -13806,6 +13956,2455 @@
       </c>
       <c r="I5" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="4">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="4">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="24">
+        <v>120</v>
+      </c>
+      <c r="C2" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="24">
+        <v>47</v>
+      </c>
+      <c r="F2" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="4">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="4">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.4340000000000011</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.286</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.075</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="4">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="24">
+        <v>80</v>
+      </c>
+      <c r="C2" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="24">
+        <v>47</v>
+      </c>
+      <c r="F2" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="4">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.4340000000000011</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.286</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.075</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="4">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="4">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="4">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="4">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="4">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="24">
+        <v>80</v>
+      </c>
+      <c r="C2" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="24">
+        <v>47</v>
+      </c>
+      <c r="F2" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="4">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -13976,6 +16575,914 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="24">
+        <v>80</v>
+      </c>
+      <c r="C2" s="24">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="24">
+        <v>38</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="24">
+        <v>10</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="4">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.2560000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>27.512999999999998</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="4">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.3120000000000003</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.1715</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>32.85</v>
+      </c>
+      <c r="D6" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="737" firstSheet="46" activeTab="52"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="737" firstSheet="39" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="428">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -1417,6 +1417,15 @@
   <si>
     <t>kápia sterilizovaná %</t>
   </si>
+  <si>
+    <t>obilniny osahujúce lepok</t>
+  </si>
+  <si>
+    <t>vajce, sójové bôby, mlieko, orechy, sezamové semeno, vlčí bôb</t>
+  </si>
+  <si>
+    <t>PŠENIČNÁ múka,pitná voda, droždie, múku upravujúca látka (E300), jedlá soľ jódovaná (jedlá soľ, jodičnan draselný).</t>
+  </si>
 </sst>
 </file>
 
@@ -1450,7 +1459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1484,12 +1493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1592,7 +1595,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14230,8 +14232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14278,35 +14280,35 @@
       <c r="A2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="24">
-        <v>120</v>
-      </c>
-      <c r="C2" s="24">
-        <v>3.9</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="24">
-        <v>47</v>
-      </c>
-      <c r="F2" s="24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G2" s="24">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>328</v>
+      <c r="B2" s="4">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -14314,7 +14316,7 @@
         <v>382</v>
       </c>
       <c r="B3" s="4">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <v>1.0900000000000001</v>
@@ -14349,7 +14351,7 @@
         <v>384</v>
       </c>
       <c r="B4" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>36</v>
@@ -14384,7 +14386,7 @@
         <v>385</v>
       </c>
       <c r="B5" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>25.5</v>
@@ -14419,7 +14421,7 @@
         <v>394</v>
       </c>
       <c r="B6" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>0.3</v>
@@ -14454,7 +14456,7 @@
         <v>395</v>
       </c>
       <c r="B7" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>0.6</v>
@@ -15018,7 +15020,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15065,35 +15067,35 @@
       <c r="A2" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="4">
         <v>80</v>
       </c>
-      <c r="C2" s="24">
-        <v>3.9</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="24">
-        <v>47</v>
-      </c>
-      <c r="F2" s="24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G2" s="24">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>328</v>
+      <c r="C2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -15770,7 +15772,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16224,7 +16226,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16271,35 +16273,35 @@
       <c r="A2" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="4">
         <v>80</v>
       </c>
-      <c r="C2" s="24">
-        <v>3.9</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="24">
-        <v>47</v>
-      </c>
-      <c r="F2" s="24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G2" s="24">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>328</v>
+      <c r="C2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -16808,7 +16810,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16855,35 +16857,35 @@
       <c r="A2" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="4">
         <v>80</v>
       </c>
-      <c r="C2" s="24">
-        <v>5.5</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="E2" s="24">
-        <v>38</v>
-      </c>
-      <c r="F2" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2" s="24">
-        <v>10</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>329</v>
+      <c r="C2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -17261,8 +17263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="737" firstSheet="39" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="737" firstSheet="48" activeTab="53"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,7 @@
     <sheet name="k_sunkova_psenicna_mala" sheetId="51" r:id="rId51"/>
     <sheet name="k_farmarska_psenicna" sheetId="52" r:id="rId52"/>
     <sheet name="k_bavaria_staroceska" sheetId="53" r:id="rId53"/>
+    <sheet name="k_syrova_grahamova" sheetId="54" r:id="rId54"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="432">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -1425,6 +1426,18 @@
   </si>
   <si>
     <t>PŠENIČNÁ múka,pitná voda, droždie, múku upravujúca látka (E300), jedlá soľ jódovaná (jedlá soľ, jodičnan draselný).</t>
+  </si>
+  <si>
+    <t>bageta grahamová %</t>
+  </si>
+  <si>
+    <t>šalát lolo biondo %</t>
+  </si>
+  <si>
+    <t>encián %</t>
+  </si>
+  <si>
+    <t>pasterizované MLIEKO, jedlá soľ, syridlo, mliekarenské kultúry, penicillium candidum, VAJCE 7,20 %: VAJCIA, nálev ( pitná voda, jedlá soľ, regulátor kyslosti (kyselina mliečna a octová), antioxidanty E325, E326)</t>
   </si>
 </sst>
 </file>
@@ -14232,7 +14245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -14496,7 +14509,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A4" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15772,7 +15785,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A4" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17264,7 +17277,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17482,6 +17495,262 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="4">
+        <v>95</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="4">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>86</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/list.xlsx
+++ b/list.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.toth\Documents\python\maual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="5070" tabRatio="737" firstSheet="48" activeTab="53"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="26700" windowHeight="14280" tabRatio="737" firstSheet="60" activeTab="67"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -66,18 +66,38 @@
     <sheet name="k_farmarska_psenicna" sheetId="52" r:id="rId52"/>
     <sheet name="k_bavaria_staroceska" sheetId="53" r:id="rId53"/>
     <sheet name="k_syrova_grahamova" sheetId="54" r:id="rId54"/>
+    <sheet name="a_toast_prosciutto" sheetId="55" r:id="rId55"/>
+    <sheet name="a_toast_mozzarella" sheetId="56" r:id="rId56"/>
+    <sheet name="a_toast_sunka_syr" sheetId="57" r:id="rId57"/>
+    <sheet name="b_salat_mrkvovy" sheetId="58" r:id="rId58"/>
+    <sheet name="b_salat_civklovy" sheetId="59" r:id="rId59"/>
+    <sheet name="b_salat_zelerovy" sheetId="60" r:id="rId60"/>
+    <sheet name="c_salat_capresse" sheetId="61" r:id="rId61"/>
+    <sheet name="c_protein_box" sheetId="62" r:id="rId62"/>
+    <sheet name="c_salat_uhorkovy" sheetId="63" r:id="rId63"/>
+    <sheet name="c_salat_cicerovo_zeleninovy_01" sheetId="64" r:id="rId64"/>
+    <sheet name="c_salat_cicerovo_zeleninovy_02" sheetId="65" r:id="rId65"/>
+    <sheet name="c_salat_caesar" sheetId="66" r:id="rId66"/>
+    <sheet name="c_salat_grecky" sheetId="67" r:id="rId67"/>
+    <sheet name="c_salat_gyros" sheetId="68" r:id="rId68"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="483">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -1439,15 +1459,169 @@
   <si>
     <t>pasterizované MLIEKO, jedlá soľ, syridlo, mliekarenské kultúry, penicillium candidum, VAJCE 7,20 %: VAJCIA, nálev ( pitná voda, jedlá soľ, regulátor kyslosti (kyselina mliečna a octová), antioxidanty E325, E326)</t>
   </si>
+  <si>
+    <t>Sandwich svetlý 750g</t>
+  </si>
+  <si>
+    <t>Olej olivový</t>
+  </si>
+  <si>
+    <t>Prosciutto</t>
+  </si>
+  <si>
+    <t>Paradajka čerstvá</t>
+  </si>
+  <si>
+    <t>Cibuľa žltá</t>
+  </si>
+  <si>
+    <t>pšenica, mlieko, sója</t>
+  </si>
+  <si>
+    <t>vajcia, orechy, sezamové semeno</t>
+  </si>
+  <si>
+    <t>PŠENIČNÁ múka, voda, repkový olej, cukor, sušená SRVÁTKA (MILIEKO), sušený MLIEČNY prášok, soľ, kvasnice, ocot, fermentovaná PŠENIČNÁ múka, SOJOVÁ múka.</t>
+  </si>
+  <si>
+    <t>Syr mozzar. tvrdý</t>
+  </si>
+  <si>
+    <t>Korenie bazalka sušená</t>
+  </si>
+  <si>
+    <t>Šunka dusená</t>
+  </si>
+  <si>
+    <t>Syr tehla</t>
+  </si>
+  <si>
+    <t>mrkva strúhaná</t>
+  </si>
+  <si>
+    <t>cvikla strúhaná</t>
+  </si>
+  <si>
+    <t>zeler buľvový</t>
+  </si>
+  <si>
+    <t>zeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazalka </t>
+  </si>
+  <si>
+    <t>MLIEKO, jedlá soľ, mliekarenské kultúry, syridlo, regulátor kyslosti: kyselina citrónová, voda.</t>
+  </si>
+  <si>
+    <t>Špenát čerstvý</t>
+  </si>
+  <si>
+    <t>Vajce</t>
+  </si>
+  <si>
+    <t>Uhorka čerstvá</t>
+  </si>
+  <si>
+    <t>Cícer sterilizovaný</t>
+  </si>
+  <si>
+    <t>Zeler stopkatý</t>
+  </si>
+  <si>
+    <t>Pesto bazalkové</t>
+  </si>
+  <si>
+    <t>cícer, pitná voda, soľ, antioxidant E300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balsamico  </t>
+  </si>
+  <si>
+    <t>ľadový šalát</t>
+  </si>
+  <si>
+    <t>mäso kuracie grilované</t>
+  </si>
+  <si>
+    <t>paradajka cherry</t>
+  </si>
+  <si>
+    <t>krutóny</t>
+  </si>
+  <si>
+    <t>parmezán hobliny</t>
+  </si>
+  <si>
+    <t>dressing Caesar</t>
+  </si>
+  <si>
+    <t>paradajka čerstvá</t>
+  </si>
+  <si>
+    <t>paprika čerstvá</t>
+  </si>
+  <si>
+    <t>uhorka čerstvá</t>
+  </si>
+  <si>
+    <t>olivy</t>
+  </si>
+  <si>
+    <t>syr feta</t>
+  </si>
+  <si>
+    <t>slnečnicový olej</t>
+  </si>
+  <si>
+    <t>šalát ľadový</t>
+  </si>
+  <si>
+    <t>kurací gyros</t>
+  </si>
+  <si>
+    <t>kukurica mrazená</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitná voda, 23% jogurt (MLIEKO, MLIEČNA bielkovina, jogurtová a probiotická kultúra), 20% repkový olej, kvasný ocot liehový, cukor, 2% PARMEZÁN, jedlá soľ, sušené odtučnené MLIEKO, fermentová SÓJA, paradajkový pretlak, jablčna šťava, zahusťovadlá (xantánová guma, pektíny), regulátor kyslosti (kyselina citrónová), zmes bylín, maltodextrín, aróma, konzervačné látky (kyselina benzoová, kyselina sorbová), zmes korenín. </t>
+  </si>
+  <si>
+    <t>kravské MLIEKO, jedlá soľ, mliekarenské kultúry, syridlo</t>
+  </si>
+  <si>
+    <t>mlieko, vajcia</t>
+  </si>
+  <si>
+    <t>MLIEKO, jedlá soľ, syridlo rastlinného pôvodu, konzervačná látka: lyzozým (VAJEČNÁ bielkovina)</t>
+  </si>
+  <si>
+    <t>MLIEKO, mliekarenská kultúra, syridlo, jedlá soľ.</t>
+  </si>
+  <si>
+    <t>čierne olivy bez kôstky, pitná voda, jedlá soľ (max. 3%), stabilizátor: glukonan železnatý</t>
+  </si>
+  <si>
+    <t>zvyšok kôstok a škrupiek mandlí</t>
+  </si>
+  <si>
+    <t>bravčové stehno, jedlá soľ</t>
+  </si>
+  <si>
+    <t>bravčové stehno 70%, pitná voda, jedlá soľ, konzervačná látka: E250, stabilizátory: E451, E450, zahusťovadlá: E407a, E415, cukor, antioxidanty: E316, E301</t>
+  </si>
+  <si>
+    <t>MLIEKO odstredené, rastlinný palmový tuk 26%, jedlá soľ, stabilizátor (chlorid vápenatý), kultúry mliečnych baktérii, syridlo, farbivo (karotény)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,6 +1643,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1510,7 +1696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1557,11 +1743,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1607,6 +1828,33 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1671,9 +1919,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1706,9 +1954,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1894,7 +2142,7 @@
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
   </cols>
@@ -2054,11 +2302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2246,11 +2494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
@@ -2467,13 +2715,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2718,13 +2966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2892,11 +3140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
@@ -3084,11 +3332,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
@@ -3393,11 +3641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
@@ -3687,7 +3935,7 @@
       <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
@@ -3857,11 +4105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
@@ -4168,11 +4416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
   </cols>
@@ -4331,13 +4579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K601"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F59" sqref="F59:K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="7" customWidth="1"/>
@@ -8663,13 +8911,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="11" max="11" width="47.42578125" customWidth="1"/>
@@ -8930,11 +9178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
   </cols>
@@ -9192,11 +9440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
@@ -9420,11 +9668,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
@@ -9682,11 +9930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
@@ -9874,11 +10122,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
   </cols>
@@ -10068,11 +10316,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
@@ -10332,11 +10580,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
   </cols>
@@ -10596,13 +10844,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -10823,11 +11071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
@@ -11054,7 +11302,7 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
@@ -11158,13 +11406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11422,11 +11670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
   </cols>
@@ -11651,11 +11899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
   </cols>
@@ -11880,11 +12128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
@@ -12188,11 +12436,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -12362,16 +12610,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="19"/>
-    <col min="12" max="12" width="9.140625" style="20"/>
+    <col min="11" max="11" width="8.85546875" style="19"/>
+    <col min="12" max="12" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -12612,16 +12860,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="19"/>
-    <col min="12" max="12" width="9.140625" style="20"/>
+    <col min="11" max="11" width="8.85546875" style="19"/>
+    <col min="12" max="12" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -12939,16 +13187,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="19"/>
-    <col min="12" max="12" width="9.140625" style="20"/>
+    <col min="11" max="11" width="8.85546875" style="19"/>
+    <col min="12" max="12" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -13190,15 +13438,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="23"/>
-    <col min="12" max="12" width="9.140625" style="20"/>
+    <col min="11" max="11" width="8.85546875" style="23"/>
+    <col min="12" max="12" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -13555,11 +13803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13834,7 +14082,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -13982,11 +14230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
@@ -14245,11 +14493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
@@ -14508,11 +14756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -14771,13 +15019,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15032,11 +15280,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15293,13 +15541,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15556,13 +15804,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15784,11 +16032,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -16045,11 +16293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -16238,11 +16486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -16435,7 +16683,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
@@ -16594,11 +16842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -16822,11 +17070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -17050,11 +17298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -17276,13 +17524,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17502,47 +17750,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -17751,6 +17999,797 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="33">
+        <v>75</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3.7</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="34">
+        <v>50</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="34">
+        <v>7.8</v>
+      </c>
+      <c r="H2" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="33">
+        <v>12</v>
+      </c>
+      <c r="C3" s="34">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="34">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="33">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="33">
+        <v>25</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
+        <v>6.6</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="33">
+        <v>75</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3.7</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="34">
+        <v>50</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="34">
+        <v>7.8</v>
+      </c>
+      <c r="H2" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="33">
+        <v>12</v>
+      </c>
+      <c r="C3" s="34">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="34">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" s="33">
+        <v>65</v>
+      </c>
+      <c r="C4" s="34">
+        <v>25</v>
+      </c>
+      <c r="D4" s="34">
+        <v>16.2</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="34">
+        <v>26</v>
+      </c>
+      <c r="H4" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="33">
+        <v>20</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0.31</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="24">
+        <v>75</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3.7</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="34">
+        <v>50</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="34">
+        <v>7.8</v>
+      </c>
+      <c r="H2" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="24">
+        <v>12</v>
+      </c>
+      <c r="C3" s="34">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="34">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40</v>
+      </c>
+      <c r="C4" s="34">
+        <v>3.7</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="34">
+        <v>13.8</v>
+      </c>
+      <c r="H4" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="31" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="34">
+        <v>26</v>
+      </c>
+      <c r="D5" s="34">
+        <v>18</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="34">
+        <v>26</v>
+      </c>
+      <c r="H5" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="29">
+        <v>100</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>6.1</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30">
+        <v>1</v>
+      </c>
+      <c r="H2" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="29">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17762,7 +18801,7 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
@@ -17943,6 +18982,1557 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="29">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="36">
+        <v>68</v>
+      </c>
+      <c r="C2" s="34">
+        <v>18.5</v>
+      </c>
+      <c r="D2" s="34">
+        <v>12.2</v>
+      </c>
+      <c r="E2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="34">
+        <v>19</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="36">
+        <v>42</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="36">
+        <v>4</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.31</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="C5" s="34">
+        <v>91.3</v>
+      </c>
+      <c r="D5" s="34">
+        <v>13.3</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="36">
+        <v>20</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="36">
+        <v>50</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10.6</v>
+      </c>
+      <c r="D3" s="34">
+        <v>3.23</v>
+      </c>
+      <c r="E3" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="F3" s="34">
+        <v>1</v>
+      </c>
+      <c r="G3" s="34">
+        <v>12.6</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="36">
+        <v>150</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="36">
+        <v>14</v>
+      </c>
+      <c r="C3" s="34">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="34">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="36">
+        <v>74</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="34">
+        <v>13.6</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.44</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="36">
+        <v>32</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="34">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="36">
+        <v>32</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="36">
+        <v>20</v>
+      </c>
+      <c r="C5" s="34">
+        <v>45.9</v>
+      </c>
+      <c r="D5" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="36">
+        <v>74</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="34">
+        <v>13.6</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.44</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="36">
+        <v>32</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="34">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="36">
+        <v>32</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="36">
+        <v>10</v>
+      </c>
+      <c r="C5" s="34">
+        <v>91.3</v>
+      </c>
+      <c r="D5" s="34">
+        <v>13.3</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" s="36">
+        <v>6</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
+        <v>54</v>
+      </c>
+      <c r="F6" s="34">
+        <v>50</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="33">
+        <v>65</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="33">
+        <v>40</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0.38</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>22.8</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.13</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="33">
+        <v>55</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="33">
+        <v>12</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>6.1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="33">
+        <v>25</v>
+      </c>
+      <c r="C6" s="34">
+        <v>41</v>
+      </c>
+      <c r="D6" s="34">
+        <v>19</v>
+      </c>
+      <c r="E6" s="34">
+        <v>49</v>
+      </c>
+      <c r="F6" s="34">
+        <v>3.6</v>
+      </c>
+      <c r="G6" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="H6" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="33">
+        <v>14</v>
+      </c>
+      <c r="C7" s="34">
+        <v>28</v>
+      </c>
+      <c r="D7" s="34">
+        <v>20</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
+        <v>31</v>
+      </c>
+      <c r="H7" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>475</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="33">
+        <v>25</v>
+      </c>
+      <c r="C8" s="34">
+        <v>22</v>
+      </c>
+      <c r="D8" s="34">
+        <v>2.4</v>
+      </c>
+      <c r="E8" s="34">
+        <v>7.8</v>
+      </c>
+      <c r="F8" s="34">
+        <v>7</v>
+      </c>
+      <c r="G8" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="34">
+        <v>2.4</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="33">
+        <v>113</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="33">
+        <v>83</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="33">
+        <v>60</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="33">
+        <v>16</v>
+      </c>
+      <c r="C5" s="34">
+        <v>14</v>
+      </c>
+      <c r="D5" s="34">
+        <v>2</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="33">
+        <v>50</v>
+      </c>
+      <c r="C6" s="34">
+        <v>25</v>
+      </c>
+      <c r="D6" s="34">
+        <v>17.77</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3.24</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <v>18.41</v>
+      </c>
+      <c r="H6" s="34">
+        <v>4.17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="33">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="33">
+        <v>83</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="33">
+        <v>98</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="33">
+        <v>68</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="33">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38">
+        <v>8.4339999999999993</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1.286</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="38">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1.075</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="33">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17954,7 +20544,7 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
   </cols>
@@ -18146,7 +20736,7 @@
       <selection activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
@@ -18280,11 +20870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>

--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="26700" windowHeight="14280" tabRatio="737" firstSheet="60" activeTab="67"/>
+    <workbookView xWindow="555" yWindow="7755" windowWidth="21045" windowHeight="8835" tabRatio="737" firstSheet="58" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="corn_bageta" sheetId="1" r:id="rId1"/>
@@ -66,20 +66,23 @@
     <sheet name="k_farmarska_psenicna" sheetId="52" r:id="rId52"/>
     <sheet name="k_bavaria_staroceska" sheetId="53" r:id="rId53"/>
     <sheet name="k_syrova_grahamova" sheetId="54" r:id="rId54"/>
-    <sheet name="a_toast_prosciutto" sheetId="55" r:id="rId55"/>
-    <sheet name="a_toast_mozzarella" sheetId="56" r:id="rId56"/>
-    <sheet name="a_toast_sunka_syr" sheetId="57" r:id="rId57"/>
-    <sheet name="b_salat_mrkvovy" sheetId="58" r:id="rId58"/>
-    <sheet name="b_salat_civklovy" sheetId="59" r:id="rId59"/>
-    <sheet name="b_salat_zelerovy" sheetId="60" r:id="rId60"/>
-    <sheet name="c_salat_capresse" sheetId="61" r:id="rId61"/>
-    <sheet name="c_protein_box" sheetId="62" r:id="rId62"/>
-    <sheet name="c_salat_uhorkovy" sheetId="63" r:id="rId63"/>
-    <sheet name="c_salat_cicerovo_zeleninovy_01" sheetId="64" r:id="rId64"/>
-    <sheet name="c_salat_cicerovo_zeleninovy_02" sheetId="65" r:id="rId65"/>
-    <sheet name="c_salat_caesar" sheetId="66" r:id="rId66"/>
-    <sheet name="c_salat_grecky" sheetId="67" r:id="rId67"/>
-    <sheet name="c_salat_gyros" sheetId="68" r:id="rId68"/>
+    <sheet name="k_vegetarianska_staroceska" sheetId="75" r:id="rId55"/>
+    <sheet name="a_toast_prosciutto" sheetId="55" r:id="rId56"/>
+    <sheet name="a_toast_mozzarella" sheetId="56" r:id="rId57"/>
+    <sheet name="a_toast_sunka_syr" sheetId="57" r:id="rId58"/>
+    <sheet name="b_salat_mrkvovy" sheetId="58" r:id="rId59"/>
+    <sheet name="b_salat_civklovy" sheetId="59" r:id="rId60"/>
+    <sheet name="b_salat_zelerovy" sheetId="60" r:id="rId61"/>
+    <sheet name="c_salat_capresse" sheetId="61" r:id="rId62"/>
+    <sheet name="c_protein_box" sheetId="62" r:id="rId63"/>
+    <sheet name="c_salat_uhorkovy" sheetId="63" r:id="rId64"/>
+    <sheet name="c_salat_cicerovo_zeleninovy_01" sheetId="64" r:id="rId65"/>
+    <sheet name="c_salat_cicerovo_zeleninovy_02" sheetId="65" r:id="rId66"/>
+    <sheet name="c_salat_caesar" sheetId="66" r:id="rId67"/>
+    <sheet name="c_salat_grecky" sheetId="67" r:id="rId68"/>
+    <sheet name="c_salat_gyros" sheetId="68" r:id="rId69"/>
+    <sheet name="d_TORRO" sheetId="71" r:id="rId70"/>
+    <sheet name="d_salat_zahradny_mix" sheetId="74" r:id="rId71"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -97,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="499">
   <si>
     <t>Maslová Majoneza</t>
   </si>
@@ -1508,9 +1511,6 @@
     <t>zeler</t>
   </si>
   <si>
-    <t xml:space="preserve">Bazalka </t>
-  </si>
-  <si>
     <t>MLIEKO, jedlá soľ, mliekarenské kultúry, syridlo, regulátor kyslosti: kyselina citrónová, voda.</t>
   </si>
   <si>
@@ -1611,17 +1611,67 @@
   </si>
   <si>
     <t>MLIEKO odstredené, rastlinný palmový tuk 26%, jedlá soľ, stabilizátor (chlorid vápenatý), kultúry mliečnych baktérii, syridlo, farbivo (karotény)</t>
+  </si>
+  <si>
+    <t>hrušky</t>
+  </si>
+  <si>
+    <t>jablká</t>
+  </si>
+  <si>
+    <t>slivky</t>
+  </si>
+  <si>
+    <t>citónová šťava</t>
+  </si>
+  <si>
+    <t>bazalka, slnečnicový olej, ARAŠIDY (arašidy (97,5 %), palmový olej), soľ</t>
+  </si>
+  <si>
+    <t>Cherry paradajky</t>
+  </si>
+  <si>
+    <t>Citrón</t>
+  </si>
+  <si>
+    <t>olivový olej</t>
+  </si>
+  <si>
+    <t>šalát čerstvý</t>
+  </si>
+  <si>
+    <t>balsamico</t>
+  </si>
+  <si>
+    <t>voda, SOJOVÉ BÔBY, soľ, 0,25% bazalka sušená</t>
+  </si>
+  <si>
+    <t>sojové bôby</t>
+  </si>
+  <si>
+    <t>majonéza petržlenová %</t>
+  </si>
+  <si>
+    <t>syr tofu %</t>
+  </si>
+  <si>
+    <t>paprika %</t>
+  </si>
+  <si>
+    <t>pitná voda, repkový olej, modifikovaný škrob a stabilizátor (E142, E415), emulgovaný VAJEČNÝ ŽĹTOK (VAJEČNÝ ŽĹTOK, jedlá soľ, maltodextrin), HORČICA (pitná voda, HORČIČNÉ SEMENO, ocot kvasný liehový, jedlá soľ, výťažok korenia), kvasný ocot liehový, jedlá soľ, koreniaci prípravok (jedlá soľ, látka zvýrazňujúca chuť a vôňu (E621), sušená zelenina (mrkva, cibuľa, petržlen, pór, ZELER), škrob, cukor, byliny a korenie (obsahuje ZELER), aróma, farbivo (E101), petržlen sušený (0,45%), cukor, konzervant (sorban draselný)</t>
+  </si>
+  <si>
+    <t>vajcia, horčičné semeno, zeler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,6 +1706,27 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1779,10 +1850,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1829,18 +1902,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1853,11 +1921,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12860,8 +12941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13187,8 +13268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13439,7 +13520,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17071,7 +17152,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17751,7 +17832,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17760,37 +17841,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
@@ -18004,10 +18085,249 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="40">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="44" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="40">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="40">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="40">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="40">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18016,7 +18336,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -18051,28 +18371,28 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="41">
         <v>75</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>3.7</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="31">
         <v>0.4</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>50</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>2.7</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <v>7.8</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="31">
         <v>1.3</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -18086,88 +18406,88 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="33">
-        <v>12</v>
-      </c>
-      <c r="C3" s="34">
-        <v>91.3</v>
-      </c>
-      <c r="D3" s="34">
-        <v>13.3</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
+      <c r="A3" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="41">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4" s="33">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6</v>
+      <c r="A4" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="41">
+        <v>25</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" t="s">
-        <v>480</v>
-      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="33">
-        <v>25</v>
-      </c>
-      <c r="C5" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="E5" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="A5" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="41">
+        <v>5</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="E5" s="31">
+        <v>6.6</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="H5" s="31">
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
@@ -18175,45 +18495,48 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="B6" s="33">
-        <v>5</v>
-      </c>
-      <c r="C6" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34">
-        <v>6.6</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
-        <v>1.4</v>
-      </c>
-      <c r="H6" s="34">
+      <c r="A6" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="41">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31">
+        <v>91.3</v>
+      </c>
+      <c r="D6" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18222,7 +18545,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -18257,28 +18580,28 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="41">
         <v>75</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>3.7</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="31">
         <v>0.4</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>50</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>2.7</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <v>7.8</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="31">
         <v>1.3</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -18292,90 +18615,90 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="41">
+        <v>65</v>
+      </c>
+      <c r="C3" s="31">
+        <v>25</v>
+      </c>
+      <c r="D3" s="31">
+        <v>16.2</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="31">
+        <v>26</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="41">
+        <v>20</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B5" s="41">
         <v>12</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C5" s="31">
         <v>91.3</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D5" s="31">
         <v>13.3</v>
       </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4" s="33">
-        <v>65</v>
-      </c>
-      <c r="C4" s="34">
-        <v>25</v>
-      </c>
-      <c r="D4" s="34">
-        <v>16.2</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="34">
-        <v>26</v>
-      </c>
-      <c r="H4" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="33">
-        <v>20</v>
-      </c>
-      <c r="C5" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="E5" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
@@ -18383,249 +18706,42 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="41">
         <v>1</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>0.06</v>
       </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31">
         <v>0.03</v>
       </c>
-      <c r="F6" s="34">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
         <v>0.31</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="31">
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="B2" s="24">
-        <v>75</v>
-      </c>
-      <c r="C2" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="34">
-        <v>50</v>
-      </c>
-      <c r="F2" s="34">
-        <v>2.7</v>
-      </c>
-      <c r="G2" s="34">
-        <v>7.8</v>
-      </c>
-      <c r="H2" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="24">
-        <v>12</v>
-      </c>
-      <c r="C3" s="34">
-        <v>91.3</v>
-      </c>
-      <c r="D3" s="34">
-        <v>13.3</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" s="1">
-        <v>40</v>
-      </c>
-      <c r="C4" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1.2</v>
-      </c>
-      <c r="E4" s="34">
-        <v>2</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="34">
-        <v>13.8</v>
-      </c>
-      <c r="H4" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="31" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20</v>
-      </c>
-      <c r="C5" s="34">
-        <v>26</v>
-      </c>
-      <c r="D5" s="34">
-        <v>18</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1.4</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="34">
-        <v>26</v>
-      </c>
-      <c r="H5" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="31" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18634,10 +18750,217 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="39">
+        <v>75</v>
+      </c>
+      <c r="C2" s="31">
+        <v>3.7</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="31">
+        <v>50</v>
+      </c>
+      <c r="F2" s="31">
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="H2" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="39">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31">
+        <v>3.7</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="31">
+        <v>13.8</v>
+      </c>
+      <c r="H3" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="39">
+        <v>20</v>
+      </c>
+      <c r="C4" s="31">
+        <v>26</v>
+      </c>
+      <c r="D4" s="31">
+        <v>18</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="31">
+        <v>26</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="39">
+        <v>15</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="E5" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="39">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31">
+        <v>91.3</v>
+      </c>
+      <c r="D6" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18681,112 +19004,120 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="29">
-        <v>100</v>
-      </c>
-      <c r="C2" s="30">
+      <c r="B2" s="38">
+        <v>120</v>
+      </c>
+      <c r="C2" s="28">
         <v>0.2</v>
       </c>
-      <c r="D2" s="30">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30">
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
         <v>6.1</v>
       </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-      <c r="G2" s="30">
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
         <v>1</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="28">
         <v>0.2</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="B2" s="29">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.2</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>1.3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.1</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18987,10 +19318,10 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A3" sqref="A3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19031,35 +19362,120 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="29">
-        <v>100</v>
+      <c r="A2" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="38">
+        <v>120</v>
       </c>
       <c r="C2" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>447</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19071,7 +19487,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19112,61 +19528,59 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="36">
-        <v>68</v>
-      </c>
-      <c r="C2" s="34">
-        <v>18.5</v>
-      </c>
-      <c r="D2" s="34">
-        <v>12.2</v>
-      </c>
-      <c r="E2" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="G2" s="34">
-        <v>19</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0.4</v>
+      <c r="A2" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="38">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>449</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="36">
-        <v>42</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="A3" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
@@ -19174,28 +19588,28 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="B4" s="36">
-        <v>4</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.31</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="A4" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
@@ -19203,29 +19617,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="36">
-        <v>4</v>
-      </c>
-      <c r="C5" s="34">
-        <v>91.3</v>
-      </c>
-      <c r="D5" s="34">
-        <v>13.3</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0</v>
+      <c r="A5" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.1</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -19238,10 +19652,10 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19282,64 +19696,127 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="36">
-        <v>20</v>
-      </c>
-      <c r="C2" s="34">
+      <c r="A2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="33">
+        <v>68</v>
+      </c>
+      <c r="C2" s="31">
+        <v>18.5</v>
+      </c>
+      <c r="D2" s="31">
+        <v>12.2</v>
+      </c>
+      <c r="E2" s="31">
         <v>0.4</v>
       </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34">
-        <v>1.7</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
-        <v>2.6</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="34"/>
+      <c r="F2" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="31">
+        <v>19</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="36">
-        <v>50</v>
-      </c>
-      <c r="C3" s="34">
-        <v>10.6</v>
-      </c>
-      <c r="D3" s="34">
-        <v>3.23</v>
-      </c>
-      <c r="E3" s="34">
+      <c r="A3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33">
+        <v>42</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="33">
+        <v>4</v>
+      </c>
+      <c r="C4" s="31">
+        <v>91.3</v>
+      </c>
+      <c r="D4" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>45.9</v>
+      </c>
+      <c r="D5">
+        <v>5.4</v>
+      </c>
+      <c r="E5">
+        <v>1.8</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
         <v>3.4</v>
       </c>
-      <c r="F3" s="34">
-        <v>1</v>
-      </c>
-      <c r="G3" s="34">
-        <v>12.6</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="31" t="s">
-        <v>319</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -19349,7 +19826,517 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="33">
+        <v>100</v>
+      </c>
+      <c r="C2" s="31">
+        <v>10.6</v>
+      </c>
+      <c r="D2" s="31">
+        <v>3.23</v>
+      </c>
+      <c r="E2" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31">
+        <v>12.6</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="33">
+        <v>20</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="33">
+        <v>160</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="33">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="33">
+        <v>100</v>
+      </c>
+      <c r="C2" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="31">
+        <v>13.6</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0.44</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="33">
+        <v>50</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="33">
+        <v>50</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="33">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="33">
+        <v>20</v>
+      </c>
+      <c r="C6" s="31">
+        <v>45.9</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5.4</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -19393,71 +20380,440 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="B2" s="36">
-        <v>150</v>
-      </c>
-      <c r="C2" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0</v>
+      <c r="B2" s="33">
+        <v>74</v>
+      </c>
+      <c r="C2" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="31">
+        <v>13.6</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0.44</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="36">
-        <v>14</v>
-      </c>
-      <c r="C3" s="34">
-        <v>91.3</v>
-      </c>
-      <c r="D3" s="34">
-        <v>13.3</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="A3" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="33">
+        <v>32</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="33">
+        <v>32</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="33">
+        <v>10</v>
+      </c>
+      <c r="C5" s="31">
+        <v>91.3</v>
+      </c>
+      <c r="D5" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="33">
+        <v>6</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31">
+        <v>54</v>
+      </c>
+      <c r="F6" s="31">
+        <v>50</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="41">
+        <v>65</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="41">
+        <v>55</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="41">
+        <v>40</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.38</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>22.8</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0.13</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" s="41">
+        <v>25</v>
+      </c>
+      <c r="C5" s="31">
+        <v>41</v>
+      </c>
+      <c r="D5" s="31">
+        <v>19</v>
+      </c>
+      <c r="E5" s="31">
+        <v>49</v>
+      </c>
+      <c r="F5" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="G5" s="31">
+        <v>7.3</v>
+      </c>
+      <c r="H5" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="41">
+        <v>25</v>
+      </c>
+      <c r="C6" s="31">
+        <v>22</v>
+      </c>
+      <c r="D6" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="F6" s="31">
+        <v>7</v>
+      </c>
+      <c r="G6" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="41">
+        <v>14</v>
+      </c>
+      <c r="C7" s="31">
+        <v>28</v>
+      </c>
+      <c r="D7" s="31">
+        <v>20</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <v>31</v>
+      </c>
+      <c r="H7" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>474</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="41">
+        <v>12</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>6.1</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -19501,90 +20857,86 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="B2" s="36">
-        <v>74</v>
-      </c>
-      <c r="C2" s="34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="34">
-        <v>13.6</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0.44</v>
+      <c r="A2" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="41">
+        <v>113</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>456</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="B3" s="36">
-        <v>32</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="34">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0.12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>447</v>
-      </c>
+      <c r="A3" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="41">
+        <v>83</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" s="36">
-        <v>32</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>2.6</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="A4" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="41">
+        <v>60</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="31">
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
@@ -19592,36 +20944,98 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="B5" s="36">
-        <v>20</v>
-      </c>
-      <c r="C5" s="34">
-        <v>45.9</v>
-      </c>
-      <c r="D5" s="34">
-        <v>5.4</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="34">
-        <v>3.4</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0</v>
+      <c r="A5" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="41">
+        <v>50</v>
+      </c>
+      <c r="C5" s="31">
+        <v>25</v>
+      </c>
+      <c r="D5" s="31">
+        <v>17.77</v>
+      </c>
+      <c r="E5" s="31">
+        <v>3.24</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>18.41</v>
+      </c>
+      <c r="H5" s="31">
+        <v>4.17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>364</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>365</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="41">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="41">
+        <v>16</v>
+      </c>
+      <c r="C7" s="31">
+        <v>14</v>
+      </c>
+      <c r="D7" s="31">
+        <v>2</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -19629,12 +21043,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19675,90 +21089,86 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="B2" s="36">
-        <v>74</v>
-      </c>
-      <c r="C2" s="34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="34">
-        <v>13.6</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0.44</v>
+      <c r="A2" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="41">
+        <v>98</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>456</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="B3" s="36">
-        <v>32</v>
-      </c>
-      <c r="C3" s="34">
+      <c r="A3" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="41">
+        <v>83</v>
+      </c>
+      <c r="C3" s="31">
         <v>0.2</v>
       </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="34">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0.12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>447</v>
-      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" s="36">
-        <v>32</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>2.6</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="A4" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="41">
+        <v>68</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="31">
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
@@ -19766,734 +21176,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="36">
-        <v>10</v>
-      </c>
-      <c r="C5" s="34">
-        <v>91.3</v>
-      </c>
-      <c r="D5" s="34">
-        <v>13.3</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" s="36">
-        <v>6</v>
-      </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34">
-        <v>54</v>
-      </c>
-      <c r="F6" s="34">
-        <v>50</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" s="33">
-        <v>65</v>
-      </c>
-      <c r="C2" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34">
-        <v>1.4</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
+      <c r="A5" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="41">
+        <v>40</v>
+      </c>
+      <c r="C5" s="43">
+        <v>8.4</v>
+      </c>
+      <c r="D5" s="43">
         <v>1.3</v>
       </c>
-      <c r="H2" s="34">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="B3" s="33">
-        <v>40</v>
-      </c>
-      <c r="C3" s="34">
-        <v>1.2</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0.38</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>22.8</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0.13</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="33">
-        <v>55</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="33">
-        <v>12</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>6.1</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0</v>
-      </c>
-      <c r="G5" s="37">
-        <v>1</v>
-      </c>
-      <c r="H5" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" s="33">
-        <v>25</v>
-      </c>
-      <c r="C6" s="34">
-        <v>41</v>
-      </c>
-      <c r="D6" s="34">
-        <v>19</v>
-      </c>
-      <c r="E6" s="34">
-        <v>49</v>
-      </c>
-      <c r="F6" s="34">
-        <v>3.6</v>
-      </c>
-      <c r="G6" s="34">
-        <v>7.3</v>
-      </c>
-      <c r="H6" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>341</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="B7" s="33">
-        <v>14</v>
-      </c>
-      <c r="C7" s="34">
-        <v>28</v>
-      </c>
-      <c r="D7" s="34">
-        <v>20</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="E5" s="43">
         <v>0.6</v>
       </c>
-      <c r="F7" s="34">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
-        <v>31</v>
-      </c>
-      <c r="H7" s="34">
-        <v>1.4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>475</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="33">
-        <v>25</v>
-      </c>
-      <c r="C8" s="34">
-        <v>22</v>
-      </c>
-      <c r="D8" s="34">
-        <v>2.4</v>
-      </c>
-      <c r="E8" s="34">
-        <v>7.8</v>
-      </c>
-      <c r="F8" s="34">
-        <v>7</v>
-      </c>
-      <c r="G8" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="H8" s="34">
-        <v>2.4</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="33">
-        <v>113</v>
-      </c>
-      <c r="C2" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="B3" s="33">
-        <v>83</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>2.6</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="33">
-        <v>60</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="33">
-        <v>16</v>
-      </c>
-      <c r="C5" s="34">
-        <v>14</v>
-      </c>
-      <c r="D5" s="34">
-        <v>2</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="B6" s="33">
-        <v>50</v>
-      </c>
-      <c r="C6" s="34">
-        <v>25</v>
-      </c>
-      <c r="D6" s="34">
-        <v>17.77</v>
-      </c>
-      <c r="E6" s="34">
-        <v>3.24</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
-        <v>18.41</v>
-      </c>
-      <c r="H6" s="34">
-        <v>4.17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7" s="33">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="B2" s="33">
-        <v>83</v>
-      </c>
-      <c r="C2" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34">
-        <v>1.4</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="B3" s="33">
-        <v>98</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="33">
-        <v>68</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="B5" s="33">
-        <v>40</v>
-      </c>
-      <c r="C5" s="38">
-        <v>8.4339999999999993</v>
-      </c>
-      <c r="D5" s="38">
-        <v>1.286</v>
-      </c>
-      <c r="E5" s="38">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="F5" s="38">
+      <c r="F5" s="43">
         <v>0.15</v>
       </c>
-      <c r="G5" s="38">
-        <v>34.386000000000003</v>
-      </c>
-      <c r="H5" s="38">
-        <v>1.075</v>
+      <c r="G5" s="43">
+        <v>34.4</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -20502,10 +21207,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="B6" s="33">
+      <c r="A6" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="41">
         <v>15</v>
       </c>
       <c r="C6" s="1">
@@ -20532,7 +21237,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20722,6 +21426,494 @@
       <c r="I6" s="4" t="s">
         <v>168</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>142</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="4">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17.77</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>18.41</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="4">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="35">
+        <v>60</v>
+      </c>
+      <c r="C2" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="35">
+        <v>11.3</v>
+      </c>
+      <c r="F2" s="35">
+        <v>10.3</v>
+      </c>
+      <c r="G2" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="35">
+        <v>50</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="35">
+        <v>12.4</v>
+      </c>
+      <c r="F3" s="35">
+        <v>9.5</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" s="35">
+        <v>45</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="35">
+        <v>10.5</v>
+      </c>
+      <c r="F4" s="35">
+        <v>10.9</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="35">
+        <v>30</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="35">
+        <v>15.2</v>
+      </c>
+      <c r="F5" s="35">
+        <v>15</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="35">
+        <v>20</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="35">
+        <v>6.1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2.7</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
